--- a/CompareResults/xmlCompare_output_2023-06-21_11-38-50.xlsx
+++ b/CompareResults/xmlCompare_output_2023-06-21_11-38-50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msoit-my.sharepoint.com/personal/akant_malviya_morneaushepell_com/Documents/Documents/4. Improvement Ideas &amp; Tools/XML Compare Tool/XMLFileCompare/FileCompare/CompareResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_900873CD58445E3FE4377C76435DCE3A6745BDA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B966459-F165-4A22-8E7C-923E21B6B811}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_900873CD58445E3FE4377C76435DCE3A6745BDA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0FDB027-E89B-4914-B2CB-0DE01E5993A9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>Text Content Difference</t>
-  </si>
-  <si>
-    <t>Attributes Changes of Backup</t>
-  </si>
-  <si>
-    <t>Attributes Changes of Updated</t>
   </si>
   <si>
     <t>Extra Nodes in Backup</t>
@@ -392,6 +386,12 @@
     <t xml:space="preserve">Child element count mismatch for tag 'Return': 0 != 4
 </t>
   </si>
+  <si>
+    <t>Attributes &amp; Text Changes of Backup</t>
+  </si>
+  <si>
+    <t>Attributes &amp; Text Changes of Updated</t>
+  </si>
 </sst>
 </file>
 
@@ -758,11 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,7 +771,7 @@
     <col min="7" max="7" width="400" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,22 +779,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -804,50 +803,50 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -855,32 +854,26 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="81.9.1.1.1.1.2.1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>